--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,51 +534,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.791298</v>
+        <v>3.895302</v>
       </c>
       <c r="H2">
-        <v>14.373894</v>
+        <v>11.685906</v>
       </c>
       <c r="I2">
-        <v>0.2539858212527057</v>
+        <v>0.1607797697193069</v>
       </c>
       <c r="J2">
-        <v>0.2539858212527057</v>
+        <v>0.1607797697193069</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3446246666666666</v>
+        <v>0.7146560000000001</v>
       </c>
       <c r="N2">
-        <v>1.033874</v>
+        <v>2.143968</v>
       </c>
       <c r="O2">
-        <v>0.4966896930093215</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4966896930093215</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.651199476150667</v>
+        <v>2.783800946112</v>
       </c>
       <c r="R2">
-        <v>14.860795285356</v>
+        <v>25.054208515008</v>
       </c>
       <c r="S2">
-        <v>0.1261521395867268</v>
+        <v>0.1607797697193069</v>
       </c>
       <c r="T2">
-        <v>0.1261521395867268</v>
+        <v>0.1607797697193069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.791298</v>
+        <v>9.844169000000001</v>
       </c>
       <c r="H3">
-        <v>14.373894</v>
+        <v>29.532507</v>
       </c>
       <c r="I3">
-        <v>0.2539858212527057</v>
+        <v>0.4063210567236994</v>
       </c>
       <c r="J3">
-        <v>0.2539858212527057</v>
+        <v>0.4063210567236994</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3492183333333334</v>
+        <v>0.7146560000000001</v>
       </c>
       <c r="N3">
-        <v>1.047655</v>
+        <v>2.143968</v>
       </c>
       <c r="O3">
-        <v>0.5033103069906785</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.5033103069906786</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.673209102063334</v>
+        <v>7.035194440864001</v>
       </c>
       <c r="R3">
-        <v>15.05888191857</v>
+        <v>63.316749967776</v>
       </c>
       <c r="S3">
-        <v>0.1278336816659789</v>
+        <v>0.4063210567236994</v>
       </c>
       <c r="T3">
-        <v>0.1278336816659789</v>
+        <v>0.4063210567236994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,232 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.844168999999999</v>
+        <v>10.488092</v>
       </c>
       <c r="H4">
-        <v>29.532507</v>
+        <v>31.464276</v>
       </c>
       <c r="I4">
-        <v>0.5218375788805928</v>
+        <v>0.4328991735569938</v>
       </c>
       <c r="J4">
-        <v>0.5218375788805928</v>
+        <v>0.4328991735569938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3446246666666666</v>
+        <v>0.7146560000000001</v>
       </c>
       <c r="N4">
-        <v>1.033874</v>
+        <v>2.143968</v>
       </c>
       <c r="O4">
-        <v>0.4966896930093215</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.4966896930093215</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>3.392543460235333</v>
+        <v>7.495377876352001</v>
       </c>
       <c r="R4">
-        <v>30.532891142118</v>
+        <v>67.45840088716801</v>
       </c>
       <c r="S4">
-        <v>0.2591913468549292</v>
+        <v>0.4328991735569938</v>
       </c>
       <c r="T4">
-        <v>0.2591913468549292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>9.844168999999999</v>
-      </c>
-      <c r="H5">
-        <v>29.532507</v>
-      </c>
-      <c r="I5">
-        <v>0.5218375788805928</v>
-      </c>
-      <c r="J5">
-        <v>0.5218375788805928</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.3492183333333334</v>
-      </c>
-      <c r="N5">
-        <v>1.047655</v>
-      </c>
-      <c r="O5">
-        <v>0.5033103069906785</v>
-      </c>
-      <c r="P5">
-        <v>0.5033103069906786</v>
-      </c>
-      <c r="Q5">
-        <v>3.437764291231666</v>
-      </c>
-      <c r="R5">
-        <v>30.939878621085</v>
-      </c>
-      <c r="S5">
-        <v>0.2626462320256636</v>
-      </c>
-      <c r="T5">
-        <v>0.2626462320256636</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.228964</v>
-      </c>
-      <c r="H6">
-        <v>12.686892</v>
-      </c>
-      <c r="I6">
-        <v>0.2241765998667015</v>
-      </c>
-      <c r="J6">
-        <v>0.2241765998667015</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.3446246666666666</v>
-      </c>
-      <c r="N6">
-        <v>1.033874</v>
-      </c>
-      <c r="O6">
-        <v>0.4966896930093215</v>
-      </c>
-      <c r="P6">
-        <v>0.4966896930093215</v>
-      </c>
-      <c r="Q6">
-        <v>1.457405308845333</v>
-      </c>
-      <c r="R6">
-        <v>13.116647779608</v>
-      </c>
-      <c r="S6">
-        <v>0.1113462065676655</v>
-      </c>
-      <c r="T6">
-        <v>0.1113462065676655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.228964</v>
-      </c>
-      <c r="H7">
-        <v>12.686892</v>
-      </c>
-      <c r="I7">
-        <v>0.2241765998667015</v>
-      </c>
-      <c r="J7">
-        <v>0.2241765998667015</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.3492183333333334</v>
-      </c>
-      <c r="N7">
-        <v>1.047655</v>
-      </c>
-      <c r="O7">
-        <v>0.5033103069906785</v>
-      </c>
-      <c r="P7">
-        <v>0.5033103069906786</v>
-      </c>
-      <c r="Q7">
-        <v>1.476831759806667</v>
-      </c>
-      <c r="R7">
-        <v>13.29148583826</v>
-      </c>
-      <c r="S7">
-        <v>0.112830393299036</v>
-      </c>
-      <c r="T7">
-        <v>0.1128303932990361</v>
+        <v>0.4328991735569938</v>
       </c>
     </row>
   </sheetData>
